--- a/TrueShd.xlsx
+++ b/TrueShd.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Евгений\Desktop\BOT_NBA\BOT_NBA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Евгений\Desktop\HEROKU\BotNba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9688" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9689" uniqueCount="378">
   <si>
     <t>21 октября 2021</t>
   </si>
@@ -1179,6 +1179,9 @@
   </si>
   <si>
     <t>2021:11:26</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1214,8 +1217,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -27815,11 +27820,16 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -28479,149 +28489,149 @@
         <v>130</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>349</v>
       </c>
       <c r="B48" t="s">
         <v>142</v>
       </c>
-      <c r="C48" t="s">
-        <v>280</v>
+      <c r="C48" s="1">
+        <v>0.875</v>
       </c>
       <c r="D48" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>247</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" t="s">
-        <v>248</v>
+        <v>377</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D49" s="2">
+        <v>84.250983796296296</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>247</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C52" t="s">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D54" t="s">
-        <v>320</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s">
-        <v>127</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
@@ -28630,314 +28640,328 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D59" t="s">
-        <v>303</v>
+        <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>154</v>
+        <v>302</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>256</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D64" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>171</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>266</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>174</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>367</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="D71" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="B72" t="s">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>180</v>
+        <v>269</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D73" t="s">
-        <v>181</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>353</v>
+        <v>180</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>195</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>310</v>
+        <v>194</v>
       </c>
       <c r="B79" t="s">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>311</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>310</v>
+      </c>
+      <c r="B80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>282</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>38</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>14</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>283</v>
       </c>
     </row>

--- a/TrueShd.xlsx
+++ b/TrueShd.xlsx
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9689" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9687" uniqueCount="377">
   <si>
     <t>21 октября 2021</t>
   </si>
@@ -1179,9 +1179,6 @@
   </si>
   <si>
     <t>2021:11:26</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1217,10 +1214,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -27820,10 +27816,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28503,135 +28499,135 @@
         <v>350</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="B49" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="D49" s="2">
-        <v>84.250983796296296</v>
+        <v>28</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="B50" t="s">
-        <v>28</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>134</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="D52" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B53" t="s">
-        <v>35</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>140</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>148</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
@@ -28640,328 +28636,314 @@
         <v>72</v>
       </c>
       <c r="D58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>302</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>153</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>302</v>
+        <v>154</v>
       </c>
       <c r="B60" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B62" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
       </c>
       <c r="C64" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>367</v>
       </c>
       <c r="D70" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="C71" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>326</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D72" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>180</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>273</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>277</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>194</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
       </c>
       <c r="D78" t="s">
-        <v>356</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>194</v>
+        <v>310</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>195</v>
+        <v>311</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" t="s">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s">
         <v>283</v>
       </c>
     </row>
